--- a/medicine/Enfance/Berceau/Berceau.xlsx
+++ b/medicine/Enfance/Berceau/Berceau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un berceau est le lit d'enfant particulier dans lequel dorment les nourrissons et les petits enfants jusque deux à trois ans, ou plus s'il est de grande taille. 
 </t>
@@ -511,12 +523,14 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il peut avoir différentes formes et être fait de différentes matières, mais est toujours conçu pour empêcher la chute ou la sortie de l'enfant. Ce bord haut a donné le nom au meuble entier (latin bercium = ber servant à supporter les bateaux en construction). Une caractéristique moins fréquente est de pouvoir être incliné d'avant en arrière et/ou de droite à gauche, soit par la courbure du support, soit par sa suspension. 
 Le fait de balancer le berceau est appelé bercer et les chansons très souvent traditionnelles qui accompagnent cette opération destinée à faciliter l'arrivée du sommeil chez l'enfant sont dénommées les berceuses.
 Le quatrième tome du Journal des connaissances utiles consacre en 1896 trois pages et cinq illustrations à différents berceaux en France ainsi qu'à certains moyens de laisser un poupon sans surveillance. 
-Au Québec, ce meuble est plus connu sous le terme bassinette, même si son usage est parfois critiqué[1].
+Au Québec, ce meuble est plus connu sous le terme bassinette, même si son usage est parfois critiqué.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Sécurité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le berceau est un meuble particulier car il relève d'un texte réglementaire, le décret 91-1292 sur les articles de puériculture. Aucun fabricant ne peut mettre sur le marché un berceau sans s'assurer de la conformité de son meuble à ce texte.
 </t>
